--- a/Data/WorkScheduleCC.xlsx
+++ b/Data/WorkScheduleCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3834D23-DF53-504A-A087-F89B253F07C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1822AC-0CFB-3E4F-B74E-4D878F2AAF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1080" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="460" windowWidth="25000" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Question</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>RAPID Team Developed</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +218,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,7 +1385,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1416,7 +1422,9 @@
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -1429,7 +1437,9 @@
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
         <v>18</v>
@@ -1442,7 +1452,9 @@
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -1455,7 +1467,9 @@
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
         <v>18</v>
@@ -1468,7 +1482,9 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
         <v>18</v>
@@ -1481,20 +1497,24 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="s">
         <v>18</v>

--- a/Data/WorkScheduleCC.xlsx
+++ b/Data/WorkScheduleCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,11 +16,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -43,6 +54,12 @@
     <t xml:space="preserve">• Yes
 • No
 </t>
+  </si>
+  <si>
+    <t>RAPID Team Developed</t>
+  </si>
+  <si>
+    <t>13, 36</t>
   </si>
   <si>
     <t xml:space="preserve">On average, how many hours per week do you work for pay as a childcare provider? </t>
@@ -98,17 +115,33 @@
 </t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>RAPID Team Developed</t>
+    <t>Please rate your level of agreement with the following statements:
+Parents’ schedules significantly impact my work schedule</t>
+  </si>
+  <si>
+    <t>● Strongly disagree                     ● Disagree                                    ● Neither agree nor disagree          ● Agree                                         ● Strongly agree</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Please rate your level of agreement with the following statements:                               Parents' work schedules are difficult to predict and plan for</t>
+  </si>
+  <si>
+    <t>Please rate your level of agreement with the following statements:                                    When families do not attend on their scheduled days, I lose income</t>
+  </si>
+  <si>
+    <t>Please rate your level of agreement with the following statements:                                   When parents are late to pick up their child/children or drop their child/children off early, it impacts my ability to leave work on time or prepare the classroom.</t>
+  </si>
+  <si>
+    <t>In the last month, how much income have you lost as a result of a child not attending on their scheduled days?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1384,21 +1417,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="153" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1423,142 +1456,172 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="242.25" customHeight="1">
       <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="159.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="170.1" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="213" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="213" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="102" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="153" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+    <row r="9" spans="1:5" ht="153" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+    <row r="10" spans="1:5" ht="153" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:5" ht="102" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+    <row r="12" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+    <row r="13" spans="1:5" ht="102" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="76.5" customHeight="1">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="160.5" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
     </row>

--- a/Data/WorkScheduleCC.xlsx
+++ b/Data/WorkScheduleCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Do you currently get paid to provide childcare?</t>
@@ -59,7 +59,7 @@
     <t>RAPID Team Developed</t>
   </si>
   <si>
-    <t>13, 36</t>
+    <t>05/14/2021-05/28/2021 10/26/2021-11/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">On average, how many hours per week do you work for pay as a childcare provider? </t>
@@ -122,7 +122,7 @@
     <t>● Strongly disagree                     ● Disagree                                    ● Neither agree nor disagree          ● Agree                                         ● Strongly agree</t>
   </si>
   <si>
-    <t>36</t>
+    <t>10/26/2021-11/01/2021</t>
   </si>
   <si>
     <t>Please rate your level of agreement with the following statements:                               Parents' work schedules are difficult to predict and plan for</t>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>

--- a/Data/WorkScheduleCC.xlsx
+++ b/Data/WorkScheduleCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Question</t>
   </si>
@@ -59,19 +59,22 @@
     <t>RAPID Team Developed</t>
   </si>
   <si>
+    <t>05/14/2021-05/28/2021 10/26/2021-11/01/2021 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On average, how many hours per week do you work for pay as a childcare provider? </t>
+  </si>
+  <si>
+    <t>[Single Select Less than 5 hours to More than 60 hours]</t>
+  </si>
+  <si>
+    <t>What is your hourly pay rate as a childcare provider? Please do not include any dollar signs or commas in your response.</t>
+  </si>
+  <si>
+    <t>[Free Response]</t>
+  </si>
+  <si>
     <t>05/14/2021-05/28/2021 10/26/2021-11/01/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On average, how many hours per week do you work for pay as a childcare provider? </t>
-  </si>
-  <si>
-    <t>[Single Select Less than 5 hours to More than 60 hours]</t>
-  </si>
-  <si>
-    <t>What is your hourly pay rate as a childcare provider? Please do not include any dollar signs or commas in your response.</t>
-  </si>
-  <si>
-    <t>[Free Response]</t>
   </si>
   <si>
     <t>In a typical week, which days do you work at your childcare job(s)?</t>
@@ -122,26 +125,72 @@
     <t>● Strongly disagree                     ● Disagree                                    ● Neither agree nor disagree          ● Agree                                         ● Strongly agree</t>
   </si>
   <si>
+    <t>10/26/2021-11/01/2021 48</t>
+  </si>
+  <si>
+    <t>Please rate your level of agreement with the following statements:                               Parents' work schedules are difficult to predict and plan for</t>
+  </si>
+  <si>
+    <t>Please rate your level of agreement with the following statements:                                    When families do not attend on their scheduled days, I lose income</t>
+  </si>
+  <si>
     <t>10/26/2021-11/01/2021</t>
   </si>
   <si>
-    <t>Please rate your level of agreement with the following statements:                               Parents' work schedules are difficult to predict and plan for</t>
-  </si>
-  <si>
-    <t>Please rate your level of agreement with the following statements:                                    When families do not attend on their scheduled days, I lose income</t>
-  </si>
-  <si>
     <t>Please rate your level of agreement with the following statements:                                   When parents are late to pick up their child/children or drop their child/children off early, it impacts my ability to leave work on time or prepare the classroom.</t>
   </si>
   <si>
+    <t>When families do not attend on their scheduled days, are they required to pay a cancellation fee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Yes, if they cancel too late 
+● Yes, regardless of when they cancel 
+● No 
+</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>What is the cancellation fee?</t>
+  </si>
+  <si>
     <t>In the last month, how much income have you lost as a result of a child not attending on their scheduled days?</t>
+  </si>
+  <si>
+    <t>In the past two weeks, how many times did your employer or child care program cancel/close due to a COVID-19 exposure?</t>
+  </si>
+  <si>
+    <t>[Single Select 0 to 20]</t>
+  </si>
+  <si>
+    <t>In the past two weeks, how many times did your employer or child care program cancel/close due to staffing challenges?</t>
+  </si>
+  <si>
+    <t>For the most recent closure, for how long was your employer or child care program closed/canceled due to COVID-19 exposure?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Half day
+● 1 day
+● 2 days
+● 3 days
+● 4 days
+● 5 days
+● 1 week
+● 1-2 weeks
+● 2 or more weeks 
+● closed indefinitely 
+</t>
+  </si>
+  <si>
+    <t>For the most recent closure, for how long was your employer or child care program closed/canceled due to staffing challenges?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -170,6 +219,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -185,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -221,11 +277,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -243,9 +308,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -254,6 +316,24 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1464,7 +1544,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="242.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1490,15 +1570,15 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="170.1" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -1510,10 +1590,10 @@
     </row>
     <row r="6" spans="1:5" ht="213" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1524,8 +1604,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="102" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
+      <c r="A7" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -1539,11 +1619,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="153" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>18</v>
+      <c r="A8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1555,75 +1635,146 @@
     </row>
     <row r="9" spans="1:5" ht="153" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="153" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="102" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="170.1" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="78.75">
+      <c r="A13" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="160.5" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="102" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42.75">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42.75">
+      <c r="A17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="173.25">
+      <c r="A18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="173.25">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/WorkScheduleCC.xlsx
+++ b/Data/WorkScheduleCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miSNKkMPPDJMVHPeuNH4gPpOPMQ9A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -55,7 +55,7 @@
     <t>What is your hourly pay rate as a childcare provider? Please do not include any dollar signs or commas in your response.</t>
   </si>
   <si>
-    <t>[Free Response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>05/14/2021-05/28/2021 10/26/2021-11/01/2021</t>
@@ -621,7 +621,7 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -971,7 +971,7 @@
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1"/>
@@ -1005,7 +1005,7 @@
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1"/>

--- a/Data/WorkScheduleCC.xlsx
+++ b/Data/WorkScheduleCC.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="CqK2hSZOhE/Uj+cajDtm/1mhkkMDbBsYGYkIPWQoZUw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -43,7 +43,7 @@
     <t>RAPID Team Developed</t>
   </si>
   <si>
-    <t>05/14/2021-05/28/2021 10/26/2021-11/01/2021 01/31/2022-02/11/2022 05/09/2022-05/24/2022</t>
+    <t>05/14/2021-05/28/2021 10/26/2021-11/01/2021 01/31/2022-02/11/2022 05/09/2022-05/24/2022 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">On average, how many hours per week do you work for pay as a childcare provider? </t>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>05/14/2021-05/28/2021 10/26/2021-11/01/2021</t>
+  </si>
+  <si>
+    <t>What is your hourly pay rate as a child care provider?</t>
+  </si>
+  <si>
+    <t>06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>In a typical week, which days do you work at your childcare job(s)?</t>
@@ -99,6 +105,9 @@
 • 1-2 weeks in advance  
 • More than 2 weeks in advance  
 • I set my own schedule  </t>
+  </si>
+  <si>
+    <t>Is there anything else you would like to share or add?</t>
   </si>
   <si>
     <t>Please rate your level of agreement with the following statements:
@@ -654,18 +663,16 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="169.5" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -689,7 +696,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="213.0" customHeight="1">
+    <row r="6" ht="169.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -725,12 +732,12 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="102.0" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="213.0" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -761,12 +768,12 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="153.0" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
+    <row r="8" ht="102.0" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -804,10 +811,12 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -833,15 +842,15 @@
     </row>
     <row r="10" ht="153.0" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -865,16 +874,16 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="102.0" customHeight="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="153.0" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="2"/>
@@ -899,17 +908,17 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="169.5" customHeight="1">
+    <row r="12" ht="153.0" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -933,17 +942,17 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" ht="102.0" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -967,17 +976,17 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
+    <row r="14" ht="169.5" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1001,17 +1010,17 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="102.0" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1037,15 +1046,15 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1069,17 +1078,17 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
+    <row r="17" ht="102.0" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1107,13 +1116,13 @@
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1138,16 +1147,16 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1172,11 +1181,17 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1200,11 +1215,17 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -28639,6 +28660,62 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="10"/>
+      <c r="B1001" s="10"/>
+      <c r="C1001" s="10"/>
+      <c r="D1001" s="10"/>
+      <c r="E1001" s="10"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="10"/>
+      <c r="B1002" s="10"/>
+      <c r="C1002" s="10"/>
+      <c r="D1002" s="10"/>
+      <c r="E1002" s="10"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
